--- a/output/1Y_P56_KFSDIV.xlsx
+++ b/output/1Y_P56_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>14.4216</v>
       </c>
       <c r="C2" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D2" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.2404</v>
       </c>
       <c r="C3" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E3" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="F3" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="H3" s="1">
-        <v>9180.950800000001</v>
+        <v>9144.251099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9180.950800000001</v>
+        <v>9144.251099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0819</v>
+        <v>-0.0856</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>12.382</v>
       </c>
       <c r="C4" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D4" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E4" s="1">
-        <v>1448.6685</v>
+        <v>1445.7732</v>
       </c>
       <c r="F4" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="H4" s="1">
-        <v>17937.4137</v>
+        <v>17865.7081</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17937.4137</v>
+        <v>17865.7081</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.8058</v>
+        <v>13.8334</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0648</v>
+        <v>-0.0668</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>11.9583</v>
       </c>
       <c r="C5" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D5" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E5" s="1">
-        <v>2256.2925</v>
+        <v>2251.7828</v>
       </c>
       <c r="F5" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="H5" s="1">
-        <v>26981.4226</v>
+        <v>26873.6763</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>26981.4226</v>
+        <v>26873.6763</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.2961</v>
+        <v>13.3228</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0342</v>
+        <v>-0.0356</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>12.2036</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E6" s="1">
-        <v>3092.5318</v>
+        <v>3086.3471</v>
       </c>
       <c r="F6" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="H6" s="1">
-        <v>37740.0206</v>
+        <v>37589.2385</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37740.0206</v>
+        <v>37589.2385</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.9344</v>
+        <v>12.9603</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>812.2653</v>
+        <v>810.6418</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9187.734700000001</v>
+        <v>-9189.358200000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0205</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>12.9136</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E7" s="1">
-        <v>3911.9621</v>
+        <v>3904.1356</v>
       </c>
       <c r="F7" s="1">
-        <v>783.3631</v>
+        <v>781.7772</v>
       </c>
       <c r="H7" s="1">
-        <v>50517.5137</v>
+        <v>50315.7191</v>
       </c>
       <c r="I7" s="1">
-        <v>812.2653</v>
+        <v>810.6418</v>
       </c>
       <c r="J7" s="1">
-        <v>51329.779</v>
+        <v>51126.3609</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7813</v>
+        <v>12.8069</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10116.0379</v>
+        <v>-10115.806</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0752</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>13.4338</v>
       </c>
       <c r="C8" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D8" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E8" s="1">
-        <v>4695.3252</v>
+        <v>4685.9128</v>
       </c>
       <c r="F8" s="1">
-        <v>753.0288</v>
+        <v>751.5067</v>
       </c>
       <c r="H8" s="1">
-        <v>63076.0598</v>
+        <v>62823.5645</v>
       </c>
       <c r="I8" s="1">
-        <v>696.2274</v>
+        <v>694.8357999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>63772.2872</v>
+        <v>63518.4004</v>
       </c>
       <c r="K8" s="1">
-        <v>60116.0379</v>
+        <v>60115.806</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8034</v>
+        <v>12.829</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10116.0379</v>
+        <v>-10115.806</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0398</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>12.9657</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E9" s="1">
-        <v>5448.354</v>
+        <v>5437.4195</v>
       </c>
       <c r="F9" s="1">
-        <v>780.2153</v>
+        <v>778.6361000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>70641.72319999999</v>
+        <v>70359.1208</v>
       </c>
       <c r="I9" s="1">
-        <v>580.1895</v>
+        <v>579.0299</v>
       </c>
       <c r="J9" s="1">
-        <v>71221.9127</v>
+        <v>70938.15059999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70232.07580000001</v>
+        <v>70231.6119</v>
       </c>
       <c r="L9" s="1">
-        <v>12.8905</v>
+        <v>12.9163</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1267.7378</v>
+        <v>1265.1965</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8848.3001</v>
+        <v>-8850.6095</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0346</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>13.3568</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E10" s="1">
-        <v>6228.5693</v>
+        <v>6216.0555</v>
       </c>
       <c r="F10" s="1">
-        <v>781.0982</v>
+        <v>779.4693</v>
       </c>
       <c r="H10" s="1">
-        <v>83193.7546</v>
+        <v>82860.64200000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1731.8894</v>
+        <v>1728.4203</v>
       </c>
       <c r="J10" s="1">
-        <v>84925.644</v>
+        <v>84589.0624</v>
       </c>
       <c r="K10" s="1">
-        <v>80348.1137</v>
+        <v>80347.4179</v>
       </c>
       <c r="L10" s="1">
-        <v>12.8999</v>
+        <v>12.9258</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10432.9724</v>
+        <v>-10432.1051</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0456</v>
+        <v>0.0451</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>13.2487</v>
       </c>
       <c r="C11" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D11" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E11" s="1">
-        <v>7009.6675</v>
+        <v>6995.5248</v>
       </c>
       <c r="F11" s="1">
-        <v>787.4714</v>
+        <v>785.8341</v>
       </c>
       <c r="H11" s="1">
-        <v>92868.9819</v>
+        <v>92496.22840000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1298.9171</v>
+        <v>1296.3153</v>
       </c>
       <c r="J11" s="1">
-        <v>94167.8989</v>
+        <v>93792.5436</v>
       </c>
       <c r="K11" s="1">
-        <v>90781.0861</v>
+        <v>90779.523</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9508</v>
+        <v>12.9768</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10432.9724</v>
+        <v>-10432.1051</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.008</v>
+        <v>-0.008399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>13.3991</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E12" s="1">
-        <v>7797.1389</v>
+        <v>7781.3589</v>
       </c>
       <c r="F12" s="1">
-        <v>778.6323</v>
+        <v>777.0135</v>
       </c>
       <c r="H12" s="1">
-        <v>104474.6439</v>
+        <v>104054.6662</v>
       </c>
       <c r="I12" s="1">
-        <v>865.9447</v>
+        <v>864.2102</v>
       </c>
       <c r="J12" s="1">
-        <v>105340.5886</v>
+        <v>104918.8764</v>
       </c>
       <c r="K12" s="1">
-        <v>101214.0584</v>
+        <v>101211.6281</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9809</v>
+        <v>13.0069</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2523.4803</v>
+        <v>2518.3889</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7909.4921</v>
+        <v>-7913.7161</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0113</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>13.5985</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E13" s="1">
-        <v>8575.771199999999</v>
+        <v>8558.3724</v>
       </c>
       <c r="F13" s="1">
-        <v>952.7854</v>
+        <v>950.4461</v>
       </c>
       <c r="H13" s="1">
-        <v>116617.625</v>
+        <v>116148.2395</v>
       </c>
       <c r="I13" s="1">
-        <v>2956.4527</v>
+        <v>2950.494</v>
       </c>
       <c r="J13" s="1">
-        <v>119574.0777</v>
+        <v>119098.7335</v>
       </c>
       <c r="K13" s="1">
-        <v>111647.0308</v>
+        <v>111643.7332</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0189</v>
+        <v>13.045</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12956.4527</v>
+        <v>-12950.494</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0367</v>
+        <v>0.0364</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>13.6955</v>
       </c>
       <c r="C14" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D14" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E14" s="1">
-        <v>9528.556699999999</v>
+        <v>9508.818600000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9528.556699999999</v>
+        <v>-9508.818600000001</v>
       </c>
       <c r="H14" s="1">
-        <v>130498.3477</v>
+        <v>129967.4829</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>130498.3477</v>
+        <v>129967.4829</v>
       </c>
       <c r="K14" s="1">
-        <v>124603.4834</v>
+        <v>124594.2272</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0768</v>
+        <v>13.103</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130498.3477</v>
+        <v>129967.4829</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0071</v>
+        <v>0.0067</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>14.4216</v>
       </c>
       <c r="C2" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D2" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.2404</v>
       </c>
       <c r="C3" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E3" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="F3" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9180.950800000001</v>
+        <v>9144.251099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9180.950800000001</v>
+        <v>9144.251099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0819</v>
+        <v>-0.0856</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>12.382</v>
       </c>
       <c r="C4" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D4" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E4" s="1">
-        <v>1448.6685</v>
+        <v>1445.7732</v>
       </c>
       <c r="F4" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>17937.4137</v>
+        <v>17865.7081</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17937.4137</v>
+        <v>17865.7081</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.8058</v>
+        <v>13.8334</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0648</v>
+        <v>-0.0668</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>11.9583</v>
       </c>
       <c r="C5" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D5" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E5" s="1">
-        <v>2256.2925</v>
+        <v>2251.7828</v>
       </c>
       <c r="F5" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>26981.4226</v>
+        <v>26873.6763</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>26981.4226</v>
+        <v>26873.6763</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.2961</v>
+        <v>13.3228</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0342</v>
+        <v>-0.0356</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>12.2036</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E6" s="1">
-        <v>3092.5318</v>
+        <v>3086.3471</v>
       </c>
       <c r="F6" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>37740.0206</v>
+        <v>37589.2385</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37740.0206</v>
+        <v>37589.2385</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.9344</v>
+        <v>12.9603</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>812.2653</v>
+        <v>810.6418</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9187.734700000001</v>
+        <v>-9189.358200000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0205</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>12.9136</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E7" s="1">
-        <v>3911.9621</v>
+        <v>3904.1356</v>
       </c>
       <c r="F7" s="1">
-        <v>734.3022999999999</v>
+        <v>751.4301</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50517.5137</v>
+        <v>50315.7191</v>
       </c>
       <c r="I7" s="1">
-        <v>812.2653</v>
+        <v>810.6418</v>
       </c>
       <c r="J7" s="1">
-        <v>51329.779</v>
+        <v>51126.3609</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7813</v>
+        <v>12.8069</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9482.4863</v>
+        <v>-9723.129800000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0752</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>13.4338</v>
       </c>
       <c r="C8" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D8" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E8" s="1">
-        <v>4646.2644</v>
+        <v>4655.5657</v>
       </c>
       <c r="F8" s="1">
-        <v>564.4727</v>
+        <v>565.6263</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>62416.9867</v>
+        <v>62416.7042</v>
       </c>
       <c r="I8" s="1">
-        <v>1329.779</v>
+        <v>1087.512</v>
       </c>
       <c r="J8" s="1">
-        <v>63746.7658</v>
+        <v>63504.2161</v>
       </c>
       <c r="K8" s="1">
-        <v>59482.4863</v>
+        <v>59723.1298</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8022</v>
+        <v>12.8283</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7583.0133</v>
+        <v>-7613.7265</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0394</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>12.9657</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E9" s="1">
-        <v>5210.7371</v>
+        <v>5221.1921</v>
       </c>
       <c r="F9" s="1">
-        <v>959.3887</v>
+        <v>961.2837</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>67560.85400000001</v>
+        <v>67561.18120000001</v>
       </c>
       <c r="I9" s="1">
-        <v>3746.7658</v>
+        <v>3473.7854</v>
       </c>
       <c r="J9" s="1">
-        <v>71307.6197</v>
+        <v>71034.9666</v>
       </c>
       <c r="K9" s="1">
-        <v>67065.49950000001</v>
+        <v>67336.8564</v>
       </c>
       <c r="L9" s="1">
-        <v>12.8706</v>
+        <v>12.8968</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1254.4914</v>
+        <v>1257.0027</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11184.6546</v>
+        <v>-11231.7067</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0331</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>13.3568</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E10" s="1">
-        <v>6170.1258</v>
+        <v>6182.4758</v>
       </c>
       <c r="F10" s="1">
-        <v>568.0151</v>
+        <v>569.1615</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>82413.13619999999</v>
+        <v>82413.0203</v>
       </c>
       <c r="I10" s="1">
-        <v>2562.1111</v>
+        <v>2242.0787</v>
       </c>
       <c r="J10" s="1">
-        <v>84975.2473</v>
+        <v>84655.099</v>
       </c>
       <c r="K10" s="1">
-        <v>79504.6456</v>
+        <v>79825.5658</v>
       </c>
       <c r="L10" s="1">
-        <v>12.8854</v>
+        <v>12.9116</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7586.8638</v>
+        <v>-7617.4298</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0451</v>
+        <v>0.0447</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>13.2487</v>
       </c>
       <c r="C11" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D11" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E11" s="1">
-        <v>6738.1409</v>
+        <v>6751.6373</v>
       </c>
       <c r="F11" s="1">
-        <v>809.7695</v>
+        <v>811.4006000000001</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>89271.607</v>
+        <v>89271.49830000001</v>
       </c>
       <c r="I11" s="1">
-        <v>4975.2473</v>
+        <v>4624.6489</v>
       </c>
       <c r="J11" s="1">
-        <v>94246.85430000001</v>
+        <v>93896.14720000001</v>
       </c>
       <c r="K11" s="1">
-        <v>87091.5094</v>
+        <v>87442.9957</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9252</v>
+        <v>12.9514</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10728.393</v>
+        <v>-10771.5059</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0077</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>13.3991</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E12" s="1">
-        <v>7547.9104</v>
+        <v>7563.0379</v>
       </c>
       <c r="F12" s="1">
-        <v>661.5962</v>
+        <v>662.9217</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101135.2057</v>
+        <v>101135.212</v>
       </c>
       <c r="I12" s="1">
-        <v>4246.8543</v>
+        <v>3853.143</v>
       </c>
       <c r="J12" s="1">
-        <v>105382.06</v>
+        <v>104988.355</v>
       </c>
       <c r="K12" s="1">
-        <v>97819.90240000001</v>
+        <v>98214.5016</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9599</v>
+        <v>12.9861</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2425.7307</v>
+        <v>2430.5894</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6439.0636</v>
+        <v>-6469.7312</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0109</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>13.5985</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E13" s="1">
-        <v>8209.506600000001</v>
+        <v>8225.9596</v>
       </c>
       <c r="F13" s="1">
-        <v>614.9961</v>
+        <v>616.2294000000001</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>111636.9756</v>
+        <v>111636.966</v>
       </c>
       <c r="I13" s="1">
-        <v>7807.7907</v>
+        <v>7383.4118</v>
       </c>
       <c r="J13" s="1">
-        <v>119444.7663</v>
+        <v>119020.3778</v>
       </c>
       <c r="K13" s="1">
-        <v>106684.6967</v>
+        <v>107114.8222</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9953</v>
+        <v>13.0216</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8363.0244</v>
+        <v>-8396.5569</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0352</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>13.6955</v>
       </c>
       <c r="C14" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D14" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E14" s="1">
-        <v>8824.502699999999</v>
+        <v>8842.189</v>
       </c>
       <c r="F14" s="1">
-        <v>-8824.502699999999</v>
+        <v>-8842.189</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>120855.9768</v>
+        <v>120855.9239</v>
       </c>
       <c r="I14" s="1">
-        <v>9444.766299999999</v>
+        <v>8986.8549</v>
       </c>
       <c r="J14" s="1">
-        <v>130300.7431</v>
+        <v>129842.7788</v>
       </c>
       <c r="K14" s="1">
-        <v>115047.7211</v>
+        <v>115511.3791</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0373</v>
+        <v>13.0637</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120855.9768</v>
+        <v>120855.9239</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0066</v>
+        <v>0.0064</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>14.4216</v>
       </c>
       <c r="C2" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D2" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.2404</v>
       </c>
       <c r="C3" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E3" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="F3" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9180.950800000001</v>
+        <v>9144.251099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9180.950800000001</v>
+        <v>9144.251099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0819</v>
+        <v>-0.0856</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>12.382</v>
       </c>
       <c r="C4" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D4" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E4" s="1">
-        <v>1448.6685</v>
+        <v>1445.7732</v>
       </c>
       <c r="F4" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>17937.4137</v>
+        <v>17865.7081</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17937.4137</v>
+        <v>17865.7081</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.8058</v>
+        <v>13.8334</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0648</v>
+        <v>-0.0668</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>11.9583</v>
       </c>
       <c r="C5" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D5" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E5" s="1">
-        <v>2256.2925</v>
+        <v>2251.7828</v>
       </c>
       <c r="F5" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>26981.4226</v>
+        <v>26873.6763</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>26981.4226</v>
+        <v>26873.6763</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.2961</v>
+        <v>13.3228</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0342</v>
+        <v>-0.0356</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>12.2036</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E6" s="1">
-        <v>3092.5318</v>
+        <v>3086.3471</v>
       </c>
       <c r="F6" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>37740.0206</v>
+        <v>37589.2385</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37740.0206</v>
+        <v>37589.2385</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.9344</v>
+        <v>12.9603</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>812.2653</v>
+        <v>810.6418</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9187.734700000001</v>
+        <v>-9189.358200000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0205</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>12.9136</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E7" s="1">
-        <v>3911.9621</v>
+        <v>3904.1356</v>
       </c>
       <c r="F7" s="1">
-        <v>792.7693</v>
+        <v>810.0141</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>50517.5137</v>
+        <v>50315.7191</v>
       </c>
       <c r="I7" s="1">
-        <v>812.2653</v>
+        <v>810.6418</v>
       </c>
       <c r="J7" s="1">
-        <v>51329.779</v>
+        <v>51126.3609</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7813</v>
+        <v>12.8069</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10237.5051</v>
+        <v>-10481.1774</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0752</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>13.4338</v>
       </c>
       <c r="C8" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D8" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E8" s="1">
-        <v>4704.7314</v>
+        <v>4714.1497</v>
       </c>
       <c r="F8" s="1">
-        <v>584.8214</v>
+        <v>586.0162</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>63202.42</v>
+        <v>63202.1339</v>
       </c>
       <c r="I8" s="1">
-        <v>574.7602000000001</v>
+        <v>329.4644</v>
       </c>
       <c r="J8" s="1">
-        <v>63777.1803</v>
+        <v>63531.5983</v>
       </c>
       <c r="K8" s="1">
-        <v>60237.5051</v>
+        <v>60481.1774</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8036</v>
+        <v>12.8297</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7856.3738</v>
+        <v>-7888.1876</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0399</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>12.9657</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E9" s="1">
-        <v>5289.5528</v>
+        <v>5300.1659</v>
       </c>
       <c r="F9" s="1">
-        <v>980.9255000000001</v>
+        <v>957.6327</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>68582.7542</v>
+        <v>68583.0864</v>
       </c>
       <c r="I9" s="1">
-        <v>2718.3864</v>
+        <v>2441.2767</v>
       </c>
       <c r="J9" s="1">
-        <v>71301.1406</v>
+        <v>71024.3631</v>
       </c>
       <c r="K9" s="1">
-        <v>68093.8789</v>
+        <v>68369.3651</v>
       </c>
       <c r="L9" s="1">
-        <v>12.8733</v>
+        <v>12.8995</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1270.2775</v>
+        <v>1272.8204</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11448.1089</v>
+        <v>-11168.4563</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0336</v>
+        <v>-0.0341</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>13.3568</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E10" s="1">
-        <v>6270.4783</v>
+        <v>6257.7986</v>
       </c>
       <c r="F10" s="1">
-        <v>604.0095</v>
+        <v>630.4587</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>83753.52469999999</v>
+        <v>83417.0808</v>
       </c>
       <c r="I10" s="1">
-        <v>1270.2775</v>
+        <v>1272.8204</v>
       </c>
       <c r="J10" s="1">
-        <v>85023.80220000001</v>
+        <v>84689.90119999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80812.2653</v>
+        <v>80810.6418</v>
       </c>
       <c r="L10" s="1">
-        <v>12.8877</v>
+        <v>12.9136</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8067.6336</v>
+        <v>-8437.807000000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0458</v>
+        <v>0.0452</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>13.2487</v>
       </c>
       <c r="C11" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D11" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E11" s="1">
-        <v>6874.4878</v>
+        <v>6888.2573</v>
       </c>
       <c r="F11" s="1">
-        <v>845.5349</v>
+        <v>847.2379</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>91078.02619999999</v>
+        <v>91077.91529999999</v>
       </c>
       <c r="I11" s="1">
-        <v>3202.6439</v>
+        <v>2835.0134</v>
       </c>
       <c r="J11" s="1">
-        <v>94280.67</v>
+        <v>93912.9287</v>
       </c>
       <c r="K11" s="1">
-        <v>88879.8989</v>
+        <v>89248.4488</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9289</v>
+        <v>12.9566</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11202.2379</v>
+        <v>-11247.2524</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0078</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>13.3991</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E12" s="1">
-        <v>7720.0226</v>
+        <v>7735.4952</v>
       </c>
       <c r="F12" s="1">
-        <v>697.8312</v>
+        <v>699.2293</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>103441.3555</v>
+        <v>103441.3619</v>
       </c>
       <c r="I12" s="1">
-        <v>2000.406</v>
+        <v>1587.761</v>
       </c>
       <c r="J12" s="1">
-        <v>105441.7614</v>
+        <v>105029.1229</v>
       </c>
       <c r="K12" s="1">
-        <v>100082.1368</v>
+        <v>100495.7012</v>
       </c>
       <c r="L12" s="1">
-        <v>12.964</v>
+        <v>12.9915</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2474.8156</v>
+        <v>2479.7726</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6875.4943</v>
+        <v>-6908.0096</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0111</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>13.5985</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E13" s="1">
-        <v>8417.853800000001</v>
+        <v>8434.724399999999</v>
       </c>
       <c r="F13" s="1">
-        <v>653.4131</v>
+        <v>654.7234</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>114470.1855</v>
+        <v>114470.1756</v>
       </c>
       <c r="I13" s="1">
-        <v>5124.9116</v>
+        <v>4679.7515</v>
       </c>
       <c r="J13" s="1">
-        <v>119595.0971</v>
+        <v>119149.927</v>
       </c>
       <c r="K13" s="1">
-        <v>109432.4467</v>
+        <v>109883.4834</v>
       </c>
       <c r="L13" s="1">
-        <v>13</v>
+        <v>13.0275</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8885.4383</v>
+        <v>-8921.0651</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.036</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>13.6955</v>
       </c>
       <c r="C14" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D14" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E14" s="1">
-        <v>9071.267</v>
+        <v>9089.447899999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9071.267</v>
+        <v>-9089.447899999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124235.5366</v>
+        <v>124235.4823</v>
       </c>
       <c r="I14" s="1">
-        <v>6239.4734</v>
+        <v>5758.6863</v>
       </c>
       <c r="J14" s="1">
-        <v>130475.01</v>
+        <v>129994.1686</v>
       </c>
       <c r="K14" s="1">
-        <v>118317.885</v>
+        <v>118804.5485</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0431</v>
+        <v>13.0706</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124235.5366</v>
+        <v>124235.4823</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0068</v>
+        <v>0.0065</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>14.4216</v>
       </c>
       <c r="C2" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D2" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.2404</v>
       </c>
       <c r="C3" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E3" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="F3" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9180.950800000001</v>
+        <v>9144.251099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9180.950800000001</v>
+        <v>9144.251099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0819</v>
+        <v>-0.0856</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>12.382</v>
       </c>
       <c r="C4" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D4" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E4" s="1">
-        <v>1448.6685</v>
+        <v>1445.7732</v>
       </c>
       <c r="F4" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>17937.4137</v>
+        <v>17865.7081</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17937.4137</v>
+        <v>17865.7081</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.8058</v>
+        <v>13.8334</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0648</v>
+        <v>-0.0668</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>11.9583</v>
       </c>
       <c r="C5" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D5" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E5" s="1">
-        <v>2256.2925</v>
+        <v>2251.7828</v>
       </c>
       <c r="F5" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>26981.4226</v>
+        <v>26873.6763</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>26981.4226</v>
+        <v>26873.6763</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.2961</v>
+        <v>13.3228</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0342</v>
+        <v>-0.0356</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>12.2036</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E6" s="1">
-        <v>3092.5318</v>
+        <v>3086.3471</v>
       </c>
       <c r="F6" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>37740.0206</v>
+        <v>37589.2385</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37740.0206</v>
+        <v>37589.2385</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.9344</v>
+        <v>12.9603</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>812.2653</v>
+        <v>810.6418</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9187.734700000001</v>
+        <v>-9189.358200000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0205</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>12.9136</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E7" s="1">
-        <v>3911.9621</v>
+        <v>3904.1356</v>
       </c>
       <c r="F7" s="1">
-        <v>837.2773999999999</v>
+        <v>835.476</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>50517.5137</v>
+        <v>50315.7191</v>
       </c>
       <c r="I7" s="1">
-        <v>812.2653</v>
+        <v>810.6418</v>
       </c>
       <c r="J7" s="1">
-        <v>51329.779</v>
+        <v>51126.3609</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7813</v>
+        <v>12.8069</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10812.2653</v>
+        <v>-10810.6418</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0752</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>13.4338</v>
       </c>
       <c r="C8" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D8" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E8" s="1">
-        <v>4749.2395</v>
+        <v>4739.6116</v>
       </c>
       <c r="F8" s="1">
-        <v>620.4512999999999</v>
+        <v>640.8531</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>63800.3334</v>
+        <v>63543.4992</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>63800.3334</v>
+        <v>63543.4992</v>
       </c>
       <c r="K8" s="1">
-        <v>60812.2653</v>
+        <v>60810.6418</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8046</v>
+        <v>12.8303</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8335.018700000001</v>
+        <v>-8626.3308</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0403</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>12.9657</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E9" s="1">
-        <v>5369.6908</v>
+        <v>5380.4647</v>
       </c>
       <c r="F9" s="1">
-        <v>899.6799999999999</v>
+        <v>875.4566</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>69621.79979999999</v>
+        <v>69622.137</v>
       </c>
       <c r="I9" s="1">
-        <v>1664.9813</v>
+        <v>1373.6692</v>
       </c>
       <c r="J9" s="1">
-        <v>71286.7812</v>
+        <v>70995.80620000001</v>
       </c>
       <c r="K9" s="1">
-        <v>69147.284</v>
+        <v>69436.97259999999</v>
       </c>
       <c r="L9" s="1">
-        <v>12.8773</v>
+        <v>12.9054</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1282.2947</v>
+        <v>1279.6951</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10382.6866</v>
+        <v>-10093.974</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0341</v>
+        <v>-0.0346</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>13.3568</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E10" s="1">
-        <v>6269.3708</v>
+        <v>6255.9213</v>
       </c>
       <c r="F10" s="1">
-        <v>744.6799</v>
+        <v>772.1785</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>83738.73209999999</v>
+        <v>83392.0561</v>
       </c>
       <c r="I10" s="1">
-        <v>1282.2947</v>
+        <v>1279.6951</v>
       </c>
       <c r="J10" s="1">
-        <v>85021.0267</v>
+        <v>84671.7512</v>
       </c>
       <c r="K10" s="1">
-        <v>80812.2653</v>
+        <v>80810.6418</v>
       </c>
       <c r="L10" s="1">
-        <v>12.89</v>
+        <v>12.9175</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9946.5406</v>
+        <v>-10334.5281</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0459</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>13.2487</v>
       </c>
       <c r="C11" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D11" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E11" s="1">
-        <v>7014.0507</v>
+        <v>7028.0998</v>
       </c>
       <c r="F11" s="1">
-        <v>855.6126</v>
+        <v>824.4823</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>92927.05379999999</v>
+        <v>92926.94070000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1335.7541</v>
+        <v>945.167</v>
       </c>
       <c r="J11" s="1">
-        <v>94262.8079</v>
+        <v>93872.10769999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90758.80590000001</v>
+        <v>91145.16989999999</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9396</v>
+        <v>12.9687</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11335.7541</v>
+        <v>-10945.167</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.008</v>
+        <v>-0.008399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>13.3991</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E12" s="1">
-        <v>7869.6633</v>
+        <v>7852.582</v>
       </c>
       <c r="F12" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>105446.4052</v>
+        <v>105007.0827</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>105446.4052</v>
+        <v>105007.0827</v>
       </c>
       <c r="K12" s="1">
-        <v>102094.56</v>
+        <v>102090.3369</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9732</v>
+        <v>13.0009</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2525.0583</v>
+        <v>2530.1159</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7474.9417</v>
+        <v>-7469.8841</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0114</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>13.5985</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E13" s="1">
-        <v>8615.982099999999</v>
+        <v>8597.411099999999</v>
       </c>
       <c r="F13" s="1">
-        <v>710.4165</v>
+        <v>747.6797</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>117164.432</v>
+        <v>116678.0447</v>
       </c>
       <c r="I13" s="1">
-        <v>2525.0583</v>
+        <v>2530.1159</v>
       </c>
       <c r="J13" s="1">
-        <v>119689.4903</v>
+        <v>119208.1606</v>
       </c>
       <c r="K13" s="1">
-        <v>112094.56</v>
+        <v>112090.3369</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0101</v>
+        <v>13.0377</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9660.598099999999</v>
+        <v>-10187.6592</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0368</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>13.6955</v>
       </c>
       <c r="C14" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D14" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E14" s="1">
-        <v>9326.398499999999</v>
+        <v>9345.0908</v>
       </c>
       <c r="F14" s="1">
-        <v>-9326.398499999999</v>
+        <v>-9345.0908</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127729.6908</v>
+        <v>127729.6349</v>
       </c>
       <c r="I14" s="1">
-        <v>2864.4602</v>
+        <v>2342.4567</v>
       </c>
       <c r="J14" s="1">
-        <v>130594.1509</v>
+        <v>130072.0916</v>
       </c>
       <c r="K14" s="1">
-        <v>121755.1581</v>
+        <v>122277.9961</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0549</v>
+        <v>13.0847</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127729.6908</v>
+        <v>127729.6349</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.007</v>
+        <v>0.0067</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>14.4216</v>
       </c>
       <c r="C2" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D2" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.2404</v>
       </c>
       <c r="C3" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E3" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="F3" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9180.950800000001</v>
+        <v>9144.251099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9180.950800000001</v>
+        <v>9144.251099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0819</v>
+        <v>-0.0856</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>12.382</v>
       </c>
       <c r="C4" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D4" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E4" s="1">
-        <v>1448.6685</v>
+        <v>1445.7732</v>
       </c>
       <c r="F4" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>17937.4137</v>
+        <v>17865.7081</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17937.4137</v>
+        <v>17865.7081</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.8058</v>
+        <v>13.8334</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0648</v>
+        <v>-0.0668</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>11.9583</v>
       </c>
       <c r="C5" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D5" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E5" s="1">
-        <v>2256.2925</v>
+        <v>2251.7828</v>
       </c>
       <c r="F5" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>26981.4226</v>
+        <v>26873.6763</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>26981.4226</v>
+        <v>26873.6763</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.2961</v>
+        <v>13.3228</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0342</v>
+        <v>-0.0356</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>12.2036</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E6" s="1">
-        <v>3092.5318</v>
+        <v>3086.3471</v>
       </c>
       <c r="F6" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>37740.0206</v>
+        <v>37589.2385</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37740.0206</v>
+        <v>37589.2385</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.9344</v>
+        <v>12.9603</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>812.2653</v>
+        <v>810.6418</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9187.734700000001</v>
+        <v>-9189.358200000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0205</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>12.9136</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E7" s="1">
-        <v>3911.9621</v>
+        <v>3904.1356</v>
       </c>
       <c r="F7" s="1">
-        <v>837.2773999999999</v>
+        <v>835.476</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50517.5137</v>
+        <v>50315.7191</v>
       </c>
       <c r="I7" s="1">
-        <v>812.2653</v>
+        <v>810.6418</v>
       </c>
       <c r="J7" s="1">
-        <v>51329.779</v>
+        <v>51126.3609</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7813</v>
+        <v>12.8069</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10812.2653</v>
+        <v>-10810.6418</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0752</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>13.4338</v>
       </c>
       <c r="C8" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D8" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E8" s="1">
-        <v>4749.2395</v>
+        <v>4739.6116</v>
       </c>
       <c r="F8" s="1">
-        <v>701.9316</v>
+        <v>722.4968</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>63800.3334</v>
+        <v>63543.4992</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>63800.3334</v>
+        <v>63543.4992</v>
       </c>
       <c r="K8" s="1">
-        <v>60812.2653</v>
+        <v>60810.6418</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8046</v>
+        <v>12.8303</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9429.6085</v>
+        <v>-9725.313099999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0403</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>12.9657</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E9" s="1">
-        <v>5451.1711</v>
+        <v>5462.1085</v>
       </c>
       <c r="F9" s="1">
-        <v>815.2581</v>
+        <v>790.8655</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>70678.2488</v>
+        <v>70678.59110000001</v>
       </c>
       <c r="I9" s="1">
-        <v>570.3915</v>
+        <v>274.6869</v>
       </c>
       <c r="J9" s="1">
-        <v>71248.64019999999</v>
+        <v>70953.27800000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70241.8738</v>
+        <v>70535.9549</v>
       </c>
       <c r="L9" s="1">
-        <v>12.8856</v>
+        <v>12.9137</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1282.2947</v>
+        <v>1279.6951</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9288.096799999999</v>
+        <v>-8994.9918</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0346</v>
+        <v>-0.0352</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>13.3568</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E10" s="1">
-        <v>6266.4291</v>
+        <v>6252.9739</v>
       </c>
       <c r="F10" s="1">
-        <v>844.6855</v>
+        <v>842.7998</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>83699.44070000001</v>
+        <v>83352.7678</v>
       </c>
       <c r="I10" s="1">
-        <v>1282.2947</v>
+        <v>1279.6951</v>
       </c>
       <c r="J10" s="1">
-        <v>84981.7353</v>
+        <v>84632.4629</v>
       </c>
       <c r="K10" s="1">
-        <v>80812.2653</v>
+        <v>80810.6418</v>
       </c>
       <c r="L10" s="1">
-        <v>12.8961</v>
+        <v>12.9236</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11282.2947</v>
+        <v>-11279.6951</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0459</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>13.2487</v>
       </c>
       <c r="C11" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D11" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E11" s="1">
-        <v>7111.1146</v>
+        <v>7095.7737</v>
       </c>
       <c r="F11" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>94213.0238</v>
+        <v>93821.7392</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>94213.0238</v>
+        <v>93821.7392</v>
       </c>
       <c r="K11" s="1">
-        <v>92094.56</v>
+        <v>92090.33689999999</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9508</v>
+        <v>12.9782</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0081</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>13.3991</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E12" s="1">
-        <v>7865.9056</v>
+        <v>7849.058</v>
       </c>
       <c r="F12" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>105396.056</v>
+        <v>104959.9587</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>105396.056</v>
+        <v>104959.9587</v>
       </c>
       <c r="K12" s="1">
-        <v>102094.56</v>
+        <v>102090.3369</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9794</v>
+        <v>13.0067</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2560.0013</v>
+        <v>2554.4785</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7439.9987</v>
+        <v>-7445.5215</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0114</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>13.5985</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E13" s="1">
-        <v>8612.224399999999</v>
+        <v>8593.8871</v>
       </c>
       <c r="F13" s="1">
-        <v>923.6314</v>
+        <v>921.3823</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>117113.3336</v>
+        <v>116630.2194</v>
       </c>
       <c r="I13" s="1">
-        <v>2560.0013</v>
+        <v>2554.4785</v>
       </c>
       <c r="J13" s="1">
-        <v>119673.3348</v>
+        <v>119184.6979</v>
       </c>
       <c r="K13" s="1">
-        <v>112094.56</v>
+        <v>112090.3369</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0158</v>
+        <v>13.043</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12560.0013</v>
+        <v>-12554.4785</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0371</v>
+        <v>0.0367</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>13.6955</v>
       </c>
       <c r="C14" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D14" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E14" s="1">
-        <v>9535.855799999999</v>
+        <v>9515.2693</v>
       </c>
       <c r="F14" s="1">
-        <v>-9535.855799999999</v>
+        <v>-9515.2693</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>130598.3129</v>
+        <v>130055.6528</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>130598.3129</v>
+        <v>130055.6528</v>
       </c>
       <c r="K14" s="1">
-        <v>124654.5612</v>
+        <v>124644.8155</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0722</v>
+        <v>13.0995</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130598.3129</v>
+        <v>130055.6528</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0071</v>
+        <v>0.0067</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4451,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0768</v>
+        <v>13.103</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0373</v>
+        <v>13.0637</v>
       </c>
       <c r="E3" s="1">
-        <v>13.0431</v>
+        <v>13.0706</v>
       </c>
       <c r="F3" s="1">
-        <v>13.0549</v>
+        <v>13.0847</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0722</v>
+        <v>13.0995</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0414</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0127</v>
+        <v>0.0004</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0112</v>
+        <v>-0.0003</v>
       </c>
       <c r="E4" s="3">
-        <v>0.013</v>
+        <v>0.0012</v>
       </c>
       <c r="F4" s="3">
-        <v>0.014</v>
+        <v>0.0018</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0139</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1413</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1568</v>
+        <v>0.1591</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1559</v>
+        <v>0.1582</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1565</v>
+        <v>0.1588</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1569</v>
+        <v>0.1592</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1571</v>
+        <v>0.1594</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.4368</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.0485</v>
+        <v>-0.1249</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.0583</v>
+        <v>-0.1304</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.047</v>
+        <v>-0.1207</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.0402</v>
+        <v>-0.1167</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.0411</v>
+        <v>-0.1185</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1673</v>
+        <v>0.1587</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1698</v>
+        <v>0.1616</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1698</v>
+        <v>0.1613</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1692</v>
+        <v>0.1604</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1681</v>
+        <v>0.1593</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4603.4834</v>
+        <v>4594.2272</v>
       </c>
       <c r="D8" s="1">
-        <v>4492.4874</v>
+        <v>4498.234</v>
       </c>
       <c r="E8" s="1">
-        <v>4557.3584</v>
+        <v>4563.2348</v>
       </c>
       <c r="F8" s="1">
-        <v>4619.6182</v>
+        <v>4620.4529</v>
       </c>
       <c r="G8" s="1">
-        <v>4654.5612</v>
+        <v>4644.8155</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P56_KFSDIV.xlsx
+++ b/output/1Y_P56_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5689.4761</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.043</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1329</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1032</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0734</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0436</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
